--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>872581.6902531615</v>
+        <v>957948.9962864215</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367739</v>
+        <v>6542240.186367735</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8989659.799574452</v>
+        <v>8989659.799574453</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>129.5382780816531</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>92.07720442932798</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -747,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>28.33708868093411</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>224.9137523099213</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>141.778154322399</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>104.3596104604445</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539862</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>211.2324699020745</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>133.1869618013123</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,10 +992,10 @@
         <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813368</v>
+        <v>33.74703566813366</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>37.43590620096069</v>
+        <v>175.8561634490222</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5.436268832130023</v>
       </c>
       <c r="G7" t="n">
         <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>138.6599839759853</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>29.80554752097589</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>234.1055905923163</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>85.4556421029896</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>137.7336954102807</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1387,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>243.239148559244</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>65.72456219185356</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>57.6696165139432</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471489</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>57.81578986397442</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1667,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>72.97362349455935</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>114.2656173771016</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>77.4263979403581</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1895,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>92.47445699814261</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2056,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>59.3599115198021</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.320346756074402</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.9685985371958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>238.8071638495621</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2251,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2321,10 +2323,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>227.735996773493</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>318.4070179429959</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>88.89493377243178</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2533,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>109.1737684773859</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>187.9685985371963</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>174.2568275134138</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.85361609939875</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2770,16 +2772,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.4741679217952</v>
+        <v>78.78083674901981</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2843,19 +2845,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928486</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>146.9083821604492</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>171.1963318343109</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>259.7459865368295</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>217.091419992848</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>36.80199454068585</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>150.6283576409136</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396202</v>
@@ -3326,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,16 +3426,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>49.04395707686599</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>33.48579464521131</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>126.7498226612772</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>126.7498226612772</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492336</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3749,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>259.2972958106175</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.92518451681134</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>77.00086834076406</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>51.57870353610205</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3983,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>299.3798747282134</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>230.1984816395451</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4040,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4153,7 +4155,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>53.57325324602738</v>
+        <v>55.93898446134962</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,10 +4197,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.1043876014619</v>
+        <v>268.4151888127975</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1043876014619</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1043876014619</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1043876014619</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="F2" t="n">
-        <v>114.1043876014619</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="G2" t="n">
-        <v>114.1043876014619</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4337,7 +4339,7 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4355,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>801.1705019471535</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4820441686398</v>
+        <v>534.7928453799755</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.2565623210693</v>
+        <v>641.1186907988871</v>
       </c>
       <c r="C3" t="n">
-        <v>475.8035330399423</v>
+        <v>466.66566151776</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1026.232198106091</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>1026.232198106091</v>
+        <v>809.3340278189551</v>
       </c>
       <c r="W3" t="n">
-        <v>1026.232198106091</v>
+        <v>809.3340278189551</v>
       </c>
       <c r="X3" t="n">
-        <v>1026.232198106091</v>
+        <v>809.3340278189551</v>
       </c>
       <c r="Y3" t="n">
-        <v>818.4718993411373</v>
+        <v>809.3340278189551</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>466.9722618134659</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>298.4029011684693</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>782.8527349493953</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>557.3836987074096</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="U4" t="n">
-        <v>291.0060421402317</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="V4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>613.8622093113762</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1558.739534920076</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="C5" t="n">
-        <v>1558.739534920076</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="D5" t="n">
-        <v>1558.739534920076</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="E5" t="n">
-        <v>1172.951282321832</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="F5" t="n">
-        <v>761.9653775322245</v>
+        <v>856.927968911415</v>
       </c>
       <c r="G5" t="n">
-        <v>345.5190685452733</v>
+        <v>440.4816599244639</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135733</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135733</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780278</v>
+        <v>108.4604468780277</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818691</v>
+        <v>270.9975490818693</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373988</v>
+        <v>509.5409587373987</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176481</v>
+        <v>806.6359018176483</v>
       </c>
       <c r="N5" t="n">
         <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836697</v>
+        <v>1389.251120836698</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921688</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567866</v>
+        <v>1481.280004915239</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567866</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567866</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567866</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="X5" t="n">
-        <v>1558.739534920076</v>
+        <v>1267.913873701023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1558.739534920076</v>
+        <v>1267.913873701023</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>685.2765729144872</v>
+        <v>931.8121952449673</v>
       </c>
       <c r="C6" t="n">
-        <v>510.8235436333602</v>
+        <v>757.3591659638403</v>
       </c>
       <c r="D6" t="n">
-        <v>510.8235436333602</v>
+        <v>608.424756302589</v>
       </c>
       <c r="E6" t="n">
-        <v>351.5860886279047</v>
+        <v>449.1873012971336</v>
       </c>
       <c r="F6" t="n">
-        <v>205.0515306547897</v>
+        <v>302.6527433240185</v>
       </c>
       <c r="G6" t="n">
-        <v>67.95335120765398</v>
+        <v>165.5545638768828</v>
       </c>
       <c r="H6" t="n">
         <v>67.95335120765398</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135733</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324444</v>
+        <v>59.47586665324449</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650497</v>
+        <v>181.4029958650499</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877847</v>
+        <v>391.671608987785</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445259</v>
+        <v>656.4020309445264</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562539</v>
+        <v>942.5477243562543</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530451</v>
+        <v>1182.095335530452</v>
       </c>
       <c r="P6" t="n">
-        <v>1601.180110873498</v>
+        <v>1419.424910699124</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.07801923258</v>
+        <v>1693.078019232581</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843112</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178451</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833935</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566021923</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="W6" t="n">
-        <v>853.4919099345552</v>
+        <v>1515.639331235522</v>
       </c>
       <c r="X6" t="n">
-        <v>853.4919099345552</v>
+        <v>1307.787831029989</v>
       </c>
       <c r="Y6" t="n">
-        <v>853.4919099345552</v>
+        <v>1100.027532265035</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638.6755412530773</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="C7" t="n">
-        <v>469.7393583251704</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="D7" t="n">
-        <v>469.7393583251704</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="E7" t="n">
-        <v>469.7393583251704</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>202.1845387918706</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590866</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135733</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652197</v>
+        <v>36.28512133652203</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128599</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119589</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191539</v>
+        <v>646.3363778191541</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361654</v>
+        <v>895.3159625361658</v>
       </c>
       <c r="O7" t="n">
         <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580466</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
         <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397015</v>
+        <v>1178.322155933647</v>
       </c>
       <c r="S7" t="n">
-        <v>1155.801573522282</v>
+        <v>975.896440023017</v>
       </c>
       <c r="T7" t="n">
-        <v>1155.801573522282</v>
+        <v>751.49668900746</v>
       </c>
       <c r="U7" t="n">
-        <v>866.6650921510947</v>
+        <v>462.3602076362727</v>
       </c>
       <c r="V7" t="n">
-        <v>866.6650921510947</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="W7" t="n">
-        <v>866.6650921510947</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="X7" t="n">
-        <v>638.6755412530773</v>
+        <v>207.6757194303858</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.6755412530773</v>
+        <v>207.6757194303858</v>
       </c>
     </row>
     <row r="8">
@@ -4802,25 +4804,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,13 +4831,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2532.232714742604</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2323.487073348429</v>
       </c>
       <c r="U8" t="n">
-        <v>1992.424186004858</v>
+        <v>2323.487073348429</v>
       </c>
       <c r="V8" t="n">
         <v>1992.424186004858</v>
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
@@ -4881,25 +4883,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>114.5432626034356</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>299.2648838844856</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.9684409159572</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>957.2304598751772</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1344.515588472122</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1006.01552520271</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C10" t="n">
-        <v>837.079342274803</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D10" t="n">
-        <v>686.9627028624673</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>539.0496092800742</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>392.1596617821638</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4960,25 +4962,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5005,7 +5007,7 @@
         <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>1187.66399003295</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5054,37 +5056,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>3079.909711953368</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="12">
@@ -5109,31 +5111,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>686.126594326469</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>686.126594326469</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>536.0099549141332</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>536.0099549141332</v>
       </c>
       <c r="F13" t="n">
         <v>477.7578170212613</v>
@@ -5194,19 +5196,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088492</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088492</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.604709474942</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5297,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X14" t="n">
-        <v>2424.744041450753</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y14" t="n">
-        <v>2034.604709474942</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5431,19 +5433,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5455,22 +5457,22 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V16" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W16" t="n">
         <v>1722.044275313594</v>
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835253</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D17" t="n">
         <v>1617.939223126803</v>
@@ -5510,10 +5512,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,43 +5524,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3121.906610713899</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3121.906610713899</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>3121.906610713899</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W17" t="n">
-        <v>3121.906610713899</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X17" t="n">
-        <v>3121.906610713899</v>
+        <v>2841.849394875187</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.767278738087</v>
+        <v>2451.710062899375</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5570,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>461.8675266085669</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C19" t="n">
-        <v>461.8675266085669</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D19" t="n">
-        <v>311.7508871962311</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E19" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F19" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G19" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5704,19 +5706,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>879.9099329995254</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>651.920382101508</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.5159914388066</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>2175.400891308157</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>1448.172675760995</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>1062.384423162751</v>
       </c>
       <c r="F20" t="n">
         <v>821.1650657389509</v>
@@ -5747,7 +5749,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
@@ -5756,10 +5758,10 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X20" t="n">
-        <v>2535.034709923658</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y20" t="n">
-        <v>2535.034709923658</v>
+        <v>2562.000731372279</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494535</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.137385566628</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154293</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.1076525719</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.217705073989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403283</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366323</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468305</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324775</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.569348694472</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.60683175406</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.60683175406</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>1122.60683175406</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>711.6209269644526</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>296.548476809449</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6005,34 +6007,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265599</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995485</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.308520734405</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.169188758593</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="24">
@@ -6057,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6084,10 +6086,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>717.3698800184442</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C25" t="n">
-        <v>548.4336970905373</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D25" t="n">
-        <v>548.4336970905373</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E25" t="n">
-        <v>400.5206035081442</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F25" t="n">
-        <v>253.6306560102338</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G25" t="n">
         <v>163.8377936138381</v>
@@ -6142,22 +6144,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6166,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V25" t="n">
-        <v>1416.425065783662</v>
+        <v>1024.632190552476</v>
       </c>
       <c r="W25" t="n">
-        <v>1127.007895746701</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="X25" t="n">
-        <v>899.0183448486839</v>
+        <v>735.2150205155149</v>
       </c>
       <c r="Y25" t="n">
-        <v>899.0183448486839</v>
+        <v>514.4224413719847</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1384.829779622646</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1015.867262682234</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>657.6015640754838</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>657.6015640754838</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>657.6015640754838</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>242.5291139204803</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329465</v>
@@ -6245,7 +6247,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
@@ -6254,22 +6256,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923658</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="X26" t="n">
-        <v>2535.034709923658</v>
+        <v>2161.568951662579</v>
       </c>
       <c r="Y26" t="n">
-        <v>2535.034709923658</v>
+        <v>1771.429619686768</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6281,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
         <v>1109.759191501176</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6403,31 +6405,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>1416.425065783662</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W28" t="n">
-        <v>1416.425065783662</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X28" t="n">
-        <v>1188.435514885645</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y28" t="n">
-        <v>1188.435514885645</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="29">
@@ -6458,55 +6460,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3215.315153136266</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W29" t="n">
-        <v>2862.546497866151</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.080739605071</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y29" t="n">
-        <v>2489.080739605071</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1612.736483535255</v>
+        <v>1931.789305875497</v>
       </c>
       <c r="C31" t="n">
-        <v>1612.736483535255</v>
+        <v>1762.85312294759</v>
       </c>
       <c r="D31" t="n">
-        <v>1612.736483535255</v>
+        <v>1612.736483535254</v>
       </c>
       <c r="E31" t="n">
         <v>1464.823389952861</v>
@@ -6619,7 +6621,7 @@
         <v>1464.823389952861</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399797</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K31" t="n">
         <v>1713.933205348673</v>
@@ -6631,40 +6633,40 @@
         <v>2374.650049396718</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102583</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O31" t="n">
         <v>3015.388025022996</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456656</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R31" t="n">
-        <v>3235.775364366698</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S31" t="n">
-        <v>3044.089480193525</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T31" t="n">
-        <v>2822.322864763051</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U31" t="n">
-        <v>2533.219997888694</v>
+        <v>3106.321558990131</v>
       </c>
       <c r="V31" t="n">
-        <v>2278.535509682808</v>
+        <v>2851.637070784244</v>
       </c>
       <c r="W31" t="n">
-        <v>1989.118339645847</v>
+        <v>2562.219900747284</v>
       </c>
       <c r="X31" t="n">
-        <v>1761.12878874783</v>
+        <v>2334.230349849267</v>
       </c>
       <c r="Y31" t="n">
-        <v>1612.736483535255</v>
+        <v>2113.437770705737</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1892.184635123826</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C32" t="n">
-        <v>1523.222118183415</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D32" t="n">
-        <v>1164.956419576664</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E32" t="n">
-        <v>779.1681669784198</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
         <v>779.1681669784198</v>
@@ -6692,58 +6694,58 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3042.389565424839</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3042.389565424839</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V32" t="n">
-        <v>3042.389565424839</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W32" t="n">
-        <v>3042.389565424839</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X32" t="n">
-        <v>2668.92380716376</v>
+        <v>2952.140063348091</v>
       </c>
       <c r="Y32" t="n">
-        <v>2278.784475187948</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6798,31 +6800,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.4780323548191</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269122</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218339</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218339</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6889,19 +6891,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V34" t="n">
-        <v>1453.325797263567</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W34" t="n">
-        <v>1163.908627226606</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X34" t="n">
-        <v>935.919076328589</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.1264971850588</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1753.263343671913</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C35" t="n">
-        <v>1384.300826731502</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.300826731502</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E35" t="n">
         <v>1232.150970528558</v>
@@ -6932,10 +6934,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810557</v>
@@ -6944,43 +6946,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997115</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.863183736035</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.863183736035</v>
+        <v>2382.341170533244</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7013,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2027.419076256901</v>
+        <v>409.1586012949289</v>
       </c>
       <c r="C37" t="n">
-        <v>1858.482893328994</v>
+        <v>409.1586012949289</v>
       </c>
       <c r="D37" t="n">
-        <v>1708.366253916658</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E37" t="n">
-        <v>1708.366253916658</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F37" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366698</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366698</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>3201.951329371535</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>2947.266841165649</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W37" t="n">
-        <v>2657.849671128688</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X37" t="n">
-        <v>2429.86012023067</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="Y37" t="n">
-        <v>2209.06754108714</v>
+        <v>590.8070661251686</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7159,13 @@
         <v>194.5422403324635</v>
       </c>
       <c r="E38" t="n">
-        <v>194.5422403324635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5422403324635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5422403324635</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,19 +7174,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7269,7 +7271,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
         <v>2565.053542533341</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1179.52858457759</v>
+        <v>2196.097994299123</v>
       </c>
       <c r="C41" t="n">
-        <v>810.5660676371781</v>
+        <v>1827.135477358711</v>
       </c>
       <c r="D41" t="n">
-        <v>452.3003690304276</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E41" t="n">
-        <v>66.51211643218342</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F41" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W41" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>1956.267756617523</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y41" t="n">
-        <v>1566.128424641711</v>
+        <v>2582.697834363245</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.1535645674204</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2173816395135</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D43" t="n">
-        <v>605.1007422271778</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E43" t="n">
-        <v>605.1007422271778</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>458.2107947292674</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>290.5079581039863</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2907713218441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7594,25 +7596,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1808.800296392464</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C44" t="n">
-        <v>1439.837779452052</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.572080845302</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="E44" t="n">
-        <v>779.1681669784198</v>
+        <v>752.0186388101456</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>341.032734020538</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.800296392464</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1048.402400478362</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C46" t="n">
-        <v>879.4662175504554</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D46" t="n">
-        <v>729.3495781381197</v>
+        <v>583.826112045951</v>
       </c>
       <c r="E46" t="n">
-        <v>581.4364845557266</v>
+        <v>583.826112045951</v>
       </c>
       <c r="F46" t="n">
-        <v>434.5465370578162</v>
+        <v>436.9361645480407</v>
       </c>
       <c r="G46" t="n">
-        <v>266.8437004325351</v>
+        <v>269.2333279227596</v>
       </c>
       <c r="H46" t="n">
-        <v>120.6265136503929</v>
+        <v>123.0161411406174</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7834,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V46" t="n">
-        <v>1450.843444452132</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.843444452132</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X46" t="n">
-        <v>1450.843444452132</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y46" t="n">
-        <v>1230.050865308602</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157948</v>
+        <v>25.82445471157942</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>248.6462269985637</v>
+        <v>65.05511571131635</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.48617644860161</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9556134883073781</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>235.7346136893545</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22562,10 +22564,10 @@
         <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>222.11642819994</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -22635,10 +22637,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120974</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>118.8128467312647</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -22683,7 +22685,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>7.886834839504019</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22714,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>62.94100992119473</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>118.8547354191214</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22790,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539866</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,10 +22837,10 @@
         <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>39.87151167631771</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>236.5441388771567</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22866,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22878,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22911,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>214.2590769599589</v>
+        <v>75.83881971189737</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22942,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22951,16 +22953,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>139.9847791908012</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>61.74147477553819</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23069,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>93.64666787781847</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>16.93965953614568</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23191,7 +23193,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>80.85095794181458</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23245,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>80.85095794181407</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>106.001820158169</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>304.0065384866155</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>87.75143150898805</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944209</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>307.4571019070331</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>296.7574771839097</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>172.2573809594894</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>277.2566436803248</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>111.4435131414775</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -23795,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.2643065960204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>194.7652431262848</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>168.0688818921493</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,22 +24022,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911118</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24181,7 +24183,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24209,10 +24211,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>66.8717676138275</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>67.83092071305771</v>
       </c>
     </row>
     <row r="24">
@@ -24370,13 +24372,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>77.13087448659644</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>142.9638748464421</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>194.7652431262843</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>120.3509368739066</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.97836408253855</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>240.2596737416854</v>
+        <v>303.9530049144607</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24731,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>69.12041821276424</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.67627119164564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24965,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>32.72163830530931</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>126.4919521192241</v>
       </c>
     </row>
     <row r="33">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>69.12041821276489</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>345.9318471227947</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>231.3020124313482</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25312,16 +25314,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>99.57151594134638</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.7260435604016</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>255.1805474109846</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25408,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>167.8579417260432</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>21.59472895491476</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>147.5787499310939</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>51.26257727136449</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>19.35155206907403</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>174.1309518529351</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>82.55049534404839</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>180.7232440139083</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>42.77916716381071</v>
+        <v>40.41343594848847</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>612123.7119900215</v>
+        <v>612123.7119900216</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>756006.3740584897</v>
+        <v>756006.3740584899</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004318</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829372.0289004318</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224363.2393168236</v>
+        <v>224363.2393168237</v>
       </c>
       <c r="C2" t="n">
         <v>272208.021102721</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437394</v>
+        <v>336568.7935437392</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
+        <v>375096.8088680127</v>
+      </c>
+      <c r="G2" t="n">
         <v>375096.8088680128</v>
       </c>
-      <c r="G2" t="n">
-        <v>375096.8088680126</v>
-      </c>
       <c r="H2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="I2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="J2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="K2" t="n">
         <v>375096.8088680127</v>
@@ -26347,7 +26349,7 @@
         <v>375096.8088680127</v>
       </c>
       <c r="N2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="O2" t="n">
         <v>375096.8088680127</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739498</v>
+        <v>176672.6241739501</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819075</v>
+        <v>223886.3093819073</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.1544191141</v>
+        <v>68999.15441911394</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640803</v>
+        <v>41076.98154640779</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946816</v>
+        <v>54988.2912194682</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341485</v>
+        <v>47552.26579341482</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,34 +26423,34 @@
         <v>18567.93185710824</v>
       </c>
       <c r="D4" t="n">
-        <v>22196.27613594853</v>
+        <v>22196.27613594852</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="G4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="H4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="I4" t="n">
-        <v>11600.23499712841</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="J4" t="n">
+        <v>11600.2349971284</v>
+      </c>
+      <c r="K4" t="n">
         <v>11600.23499712842</v>
       </c>
-      <c r="K4" t="n">
-        <v>11600.23499712841</v>
-      </c>
       <c r="L4" t="n">
+        <v>11600.2349971284</v>
+      </c>
+      <c r="M4" t="n">
         <v>11600.23499712842</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11600.23499712841</v>
       </c>
       <c r="N4" t="n">
         <v>11600.2349971284</v>
@@ -26470,37 +26472,37 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923115</v>
+        <v>75746.87167923116</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535105.8179640837</v>
+        <v>-535105.8179640839</v>
       </c>
       <c r="C6" t="n">
-        <v>1220.593392431794</v>
+        <v>1220.593392431474</v>
       </c>
       <c r="D6" t="n">
-        <v>-2451.564413961256</v>
+        <v>-2451.564413961314</v>
       </c>
       <c r="E6" t="n">
-        <v>107117.2534923006</v>
+        <v>107117.2534923004</v>
       </c>
       <c r="F6" t="n">
         <v>289190.2333094911</v>
       </c>
       <c r="G6" t="n">
-        <v>289190.233309491</v>
+        <v>289190.2333094911</v>
       </c>
       <c r="H6" t="n">
         <v>289190.2333094911</v>
       </c>
       <c r="I6" t="n">
-        <v>289190.2333094911</v>
+        <v>289190.2333094908</v>
       </c>
       <c r="J6" t="n">
-        <v>220191.0788903768</v>
+        <v>220191.0788903771</v>
       </c>
       <c r="K6" t="n">
-        <v>248113.2517630829</v>
+        <v>248113.2517630832</v>
       </c>
       <c r="L6" t="n">
-        <v>234201.9420900228</v>
+        <v>234201.9420900227</v>
       </c>
       <c r="M6" t="n">
         <v>241637.9675160762</v>
       </c>
       <c r="N6" t="n">
-        <v>289190.2333094911</v>
+        <v>289190.233309491</v>
       </c>
       <c r="O6" t="n">
         <v>289190.2333094911</v>
       </c>
       <c r="P6" t="n">
-        <v>289190.2333094911</v>
+        <v>289190.233309491</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.446789990806</v>
+        <v>751.4467899908062</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26756,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26787,40 +26789,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919666</v>
+        <v>423.3179548919669</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26960,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213276</v>
+        <v>137.3917762213279</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267331</v>
+        <v>182.618102126733</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757591</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904606</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208072</v>
+        <v>217.2668772080722</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904605</v>
+        <v>159.6040748904606</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.2668772080721</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.02089161805349</v>
       </c>
       <c r="H5" t="n">
         <v>30.93770628339031</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050072</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
         <v>256.3943999677676</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599719</v>
+        <v>384.268742159972</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159764</v>
+        <v>476.7193540159765</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285353</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.0252436383298</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113102</v>
+        <v>508.9862526113104</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906147</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.222309719074</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639398</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802915</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442791</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,43 +31360,43 @@
         <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328141</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.9469182876874</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449893</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345737</v>
+        <v>420.3777660345738</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.5635284587855</v>
       </c>
       <c r="P6" t="n">
         <v>308.6461353077332</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
         <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633077</v>
+        <v>30.02242599633078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680708</v>
+        <v>6.514901886807082</v>
       </c>
       <c r="U6" t="n">
         <v>0.1063368099043594</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950633</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.75058985720635</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390979</v>
+        <v>95.80330632390982</v>
       </c>
       <c r="K7" t="n">
         <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
         <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
         <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843484</v>
+        <v>60.92878398843486</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879979</v>
+        <v>5.789835922879981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548919</v>
+        <v>0.07391279901548921</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33518,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,13 +34131,13 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953983</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
         <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623188</v>
       </c>
       <c r="M41" t="n">
         <v>769.2673490574995</v>
@@ -34211,7 +34213,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34381,7 +34383,7 @@
         <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
         <v>629.9949819746414</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34781,7 +34783,7 @@
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572287</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.3484954410813</v>
+        <v>75.34849544108135</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149913</v>
+        <v>164.1788911149914</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459892</v>
+        <v>240.9529390459893</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.0959021012626</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417389</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.8880411896237</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353451</v>
+        <v>203.1749950353452</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446245</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665365</v>
+        <v>25.86912147665367</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755609</v>
+        <v>123.158716375561</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078132</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>267.404466622971</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>289.0360539512404</v>
       </c>
       <c r="O6" t="n">
-        <v>241.967284014341</v>
+        <v>241.9672840143411</v>
       </c>
       <c r="P6" t="n">
-        <v>423.3179548919666</v>
+        <v>239.7268436047193</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.82617005967839</v>
+        <v>276.417281346926</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144309562</v>
+        <v>0.1957579144309989</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237019</v>
+        <v>2.444126207237048</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
         <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691731</v>
+        <v>27.30642203691735</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>63.93583437922477</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923316</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37859,7 +37861,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38029,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882187</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>957948.9962864215</v>
+        <v>918344.4892066157</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367735</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8989659.799574453</v>
+        <v>10093668.22892278</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="C2" t="n">
-        <v>129.5382780816531</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>155.5625557110025</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,13 +749,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>79.84453991653733</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>224.9137523099213</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>104.3596104604445</v>
+        <v>33.39527131750074</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>55.98635122399254</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>12.28184589708156</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539862</v>
+        <v>94.01296546539848</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>211.2324699020745</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813366</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>115.1051074574165</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>175.8561634490222</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>5.436268832130023</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>151.2269971530873</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>398.1006894651806</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>29.80554752097589</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>103.2588014327192</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>137.7336954102807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>174.9123239800305</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>65.72456219185356</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>57.6696165139432</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>4.816914552501556</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>72.97362349455935</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>66.0639153058568</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>77.4263979403581</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>132.1300101804771</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>98.80399951402457</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>59.3599115198021</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>238.8071638495621</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>225.0873194026597</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>71.67037196991727</v>
+        <v>184.3325012557244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>72.94739929677965</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.4070179429959</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>111.9811935083355</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>109.1737684773859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>44.75951530680749</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>174.2568275134138</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2617,10 +2617,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>181.448709609577</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.78083674901981</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>137.1118824501705</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396202</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>217.0914199928486</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>138.2117435109531</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.33126661321162</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>259.7459865368295</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>99.96519333195843</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.80199454068585</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>58.92805047991973</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.04395707686599</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>36.41670903610014</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>126.7498226612772</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>73.20254494049435</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>153.5988982317301</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>259.2972958106175</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>64.14647130913943</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>51.57870353610205</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>313.3527211053585</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>230.1984816395451</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>55.93898446134962</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268.4151888127975</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="C2" t="n">
-        <v>137.5684432757741</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="D2" t="n">
-        <v>137.5684432757741</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="E2" t="n">
-        <v>137.5684432757741</v>
+        <v>574.0438072739748</v>
       </c>
       <c r="F2" t="n">
-        <v>137.5684432757741</v>
+        <v>307.6661507067968</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>294.7023379333524</v>
       </c>
       <c r="H2" t="n">
         <v>137.5684432757741</v>
@@ -4330,10 +4330,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
@@ -4342,10 +4342,10 @@
         <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="U2" t="n">
-        <v>801.1705019471535</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="V2" t="n">
-        <v>801.1705019471535</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="W2" t="n">
-        <v>801.1705019471535</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="X2" t="n">
-        <v>801.1705019471535</v>
+        <v>840.4214638411528</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.7928453799755</v>
+        <v>840.4214638411528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>641.1186907988871</v>
+        <v>868.3042991927468</v>
       </c>
       <c r="C3" t="n">
-        <v>466.66566151776</v>
+        <v>693.8512699116199</v>
       </c>
       <c r="D3" t="n">
-        <v>317.7312518565088</v>
+        <v>544.9168602503686</v>
       </c>
       <c r="E3" t="n">
-        <v>158.4937968510533</v>
+        <v>385.6794052449131</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>239.1448472717981</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>101.7481608208653</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,10 +4409,10 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L3" t="n">
         <v>338.8740072302311</v>
@@ -4445,16 +4445,16 @@
         <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>809.3340278189551</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>809.3340278189551</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>809.3340278189551</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="Y3" t="n">
-        <v>809.3340278189551</v>
+        <v>1036.519636212815</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>613.8622093113762</v>
+        <v>500.0607779425552</v>
       </c>
       <c r="C4" t="n">
-        <v>613.8622093113762</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="D4" t="n">
-        <v>613.8622093113762</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>613.8622093113762</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>466.9722618134659</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
@@ -4503,7 +4503,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>613.8622093113762</v>
+        <v>1021.12292271562</v>
       </c>
       <c r="U4" t="n">
-        <v>613.8622093113762</v>
+        <v>754.7452661484421</v>
       </c>
       <c r="V4" t="n">
-        <v>613.8622093113762</v>
+        <v>500.0607779425552</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8622093113762</v>
+        <v>500.0607779425552</v>
       </c>
       <c r="X4" t="n">
-        <v>613.8622093113762</v>
+        <v>500.0607779425552</v>
       </c>
       <c r="Y4" t="n">
-        <v>613.8622093113762</v>
+        <v>500.0607779425552</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.913873701023</v>
+        <v>967.0374060366776</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.913873701023</v>
+        <v>967.0374060366776</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.913873701023</v>
+        <v>608.7717074299271</v>
       </c>
       <c r="E5" t="n">
-        <v>1267.913873701023</v>
+        <v>552.2198375067023</v>
       </c>
       <c r="F5" t="n">
-        <v>856.927968911415</v>
+        <v>141.2339327170948</v>
       </c>
       <c r="G5" t="n">
-        <v>440.4816599244639</v>
+        <v>128.8280277705478</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705479</v>
+        <v>128.8280277705478</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780277</v>
+        <v>108.4604468780283</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818693</v>
+        <v>270.9975490818703</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373987</v>
+        <v>509.5409587373999</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176483</v>
+        <v>806.6359018176505</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.15196005897</v>
+        <v>1113.151960058972</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836698</v>
+        <v>1389.2511208367</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921689</v>
+        <v>1590.394365921693</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T5" t="n">
-        <v>1481.280004915239</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="U5" t="n">
-        <v>1267.913873701023</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="V5" t="n">
-        <v>1267.913873701023</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="W5" t="n">
-        <v>1267.913873701023</v>
+        <v>1340.503164297757</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.913873701023</v>
+        <v>967.0374060366776</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.913873701023</v>
+        <v>967.0374060366776</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.8121952449673</v>
+        <v>503.7874333068507</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>329.3344040257238</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>180.3999943644725</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>180.3999943644725</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765398</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324449</v>
+        <v>70.03636142348637</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650499</v>
+        <v>453.7840752777448</v>
       </c>
       <c r="L6" t="n">
-        <v>391.671608987785</v>
+        <v>664.0526884004803</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445264</v>
+        <v>928.7831103572221</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562543</v>
+        <v>1214.928803768951</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.095335530452</v>
+        <v>1454.476414943149</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.424910699124</v>
+        <v>1627.401425557618</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232581</v>
+        <v>1693.078019232585</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567868</v>
+        <v>1693.271819567871</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567868</v>
+        <v>1577.00403425735</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567868</v>
+        <v>1577.00403425735</v>
       </c>
       <c r="V6" t="n">
-        <v>1693.271819567868</v>
+        <v>1341.851926025607</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.639331235522</v>
+        <v>1087.614569297406</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.787831029989</v>
+        <v>879.7630690918727</v>
       </c>
       <c r="Y6" t="n">
-        <v>1100.027532265035</v>
+        <v>672.0027703269188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.6757194303858</v>
+        <v>631.5396594628727</v>
       </c>
       <c r="C7" t="n">
-        <v>207.6757194303858</v>
+        <v>631.5396594628727</v>
       </c>
       <c r="D7" t="n">
-        <v>207.6757194303858</v>
+        <v>481.4230200505369</v>
       </c>
       <c r="E7" t="n">
-        <v>207.6757194303858</v>
+        <v>333.5099264681438</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1845387918706</v>
+        <v>186.6199789702335</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135736</v>
+        <v>33.86543639135743</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652203</v>
+        <v>36.28512133652222</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128599</v>
+        <v>170.0982437128603</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119589</v>
+        <v>396.8594047119595</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191541</v>
+        <v>646.336377819155</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361658</v>
+        <v>895.3159625361669</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.272612021383</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580467</v>
+        <v>1268.828805580468</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397015</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="R7" t="n">
-        <v>1178.322155933647</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="S7" t="n">
-        <v>975.896440023017</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="T7" t="n">
-        <v>751.49668900746</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="U7" t="n">
-        <v>462.3602076362727</v>
+        <v>1295.862163397017</v>
       </c>
       <c r="V7" t="n">
-        <v>207.6757194303858</v>
+        <v>1041.17767519113</v>
       </c>
       <c r="W7" t="n">
-        <v>207.6757194303858</v>
+        <v>1041.17767519113</v>
       </c>
       <c r="X7" t="n">
-        <v>207.6757194303858</v>
+        <v>813.1881242931124</v>
       </c>
       <c r="Y7" t="n">
-        <v>207.6757194303858</v>
+        <v>813.1881242931124</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1992.424186004858</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>1234.787393074839</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>823.8014882852319</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,55 +4801,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2532.232714742604</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2323.487073348429</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2323.487073348429</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V8" t="n">
-        <v>1992.424186004858</v>
+        <v>1977.695380320765</v>
       </c>
       <c r="W8" t="n">
-        <v>1992.424186004858</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.424186004858</v>
+        <v>1624.926725050651</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.424186004858</v>
+        <v>1234.787393074839</v>
       </c>
     </row>
     <row r="9">
@@ -4859,61 +4859,61 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>717.852508549538</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1468.399656105704</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1800.470091281866</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1532.144300445488</v>
       </c>
       <c r="W10" t="n">
-        <v>1636.446120074497</v>
+        <v>1242.727130408528</v>
       </c>
       <c r="X10" t="n">
-        <v>1408.45656917648</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y10" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5062,31 +5062,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X11" t="n">
-        <v>2005.586939522201</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2005.586939522201</v>
+        <v>2182.266054653545</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>686.126594326469</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>686.126594326469</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>536.0099549141332</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>536.0099549141332</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5235,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1134.908724368016</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>906.9191734699991</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>686.126594326469</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1221.525483338121</v>
+        <v>1892.963660013482</v>
       </c>
       <c r="C14" t="n">
-        <v>852.5629663977095</v>
+        <v>1524.001143073071</v>
       </c>
       <c r="D14" t="n">
-        <v>494.2972677909589</v>
+        <v>1165.73544446632</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>779.9471918680758</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>368.9612870784683</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>368.9612870784683</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>71.3776866872355</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5299,7 +5299,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.264655378055</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.125323402243</v>
+        <v>1892.963660013482</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>469.8823635670449</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>300.946180639138</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>300.946180639138</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>300.946180639138</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>300.946180639138</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>133.243344013857</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5466,22 +5466,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>651.5308283972846</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2065.110222835253</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.147705894841</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5530,37 +5530,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>3215.315153136266</v>
+        <v>2732.632940519273</v>
       </c>
       <c r="W17" t="n">
-        <v>3215.315153136266</v>
+        <v>2379.864285249158</v>
       </c>
       <c r="X17" t="n">
-        <v>2841.849394875187</v>
+        <v>2006.398526988078</v>
       </c>
       <c r="Y17" t="n">
-        <v>2451.710062899375</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>310.0549803959803</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C19" t="n">
-        <v>310.0549803959803</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D19" t="n">
-        <v>310.0549803959803</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E19" t="n">
-        <v>310.0549803959803</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F19" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1827.492528377357</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1538.389661503</v>
       </c>
       <c r="V19" t="n">
-        <v>880.2242361621296</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="W19" t="n">
-        <v>590.8070661251691</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X19" t="n">
-        <v>530.8475595395104</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y19" t="n">
-        <v>310.0549803959803</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2175.400891308157</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C20" t="n">
-        <v>1806.438374367746</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>1448.172675760995</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>1062.384423162751</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W20" t="n">
-        <v>3325.605821609171</v>
+        <v>2307.673781234102</v>
       </c>
       <c r="X20" t="n">
-        <v>2952.140063348091</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.000731372279</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
         <v>315.6219318279954</v>
@@ -5937,25 +5937,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1854.900232967364</v>
+        <v>1327.647602771992</v>
       </c>
       <c r="V22" t="n">
-        <v>1600.215744761477</v>
+        <v>1072.963114566105</v>
       </c>
       <c r="W22" t="n">
-        <v>1310.798574724517</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="X22" t="n">
-        <v>1082.809023826499</v>
+        <v>783.5459445291447</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>562.7533653856145</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2047.583838282732</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>936.9705155339541</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>551.1822629357098</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>140.1963581461022</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V23" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W23" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>2755.806928794324</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y23" t="n">
-        <v>2434.183678346854</v>
+        <v>1681.836054204826</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>332.773976541745</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="C25" t="n">
-        <v>163.8377936138381</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="D25" t="n">
-        <v>163.8377936138381</v>
+        <v>494.2172172304612</v>
       </c>
       <c r="E25" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
         <v>1617.076751502319</v>
@@ -6168,31 +6168,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1134.908724368017</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.632190552476</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W25" t="n">
-        <v>735.2150205155149</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X25" t="n">
-        <v>735.2150205155149</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.4224413719847</v>
+        <v>644.3338566427969</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1384.829779622646</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C26" t="n">
-        <v>1015.867262682234</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>657.6015640754838</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>657.6015640754838</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>657.6015640754838</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>242.5291139204803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2535.034709923659</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2161.568951662579</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y26" t="n">
-        <v>1771.429619686768</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6323,22 +6323,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L28" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N28" t="n">
         <v>1317.747152581905</v>
@@ -6405,10 +6405,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S28" t="n">
         <v>1645.778206672847</v>
@@ -6420,16 +6420,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W28" t="n">
-        <v>590.8070661251691</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>362.8175152271517</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>142.0249360836216</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1758.295537883725</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1389.333020943313</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1031.067322336563</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X29" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y29" t="n">
-        <v>2424.744041450753</v>
+        <v>2144.895377947847</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6560,10 +6560,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1931.789305875497</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C31" t="n">
-        <v>1762.85312294759</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D31" t="n">
-        <v>1612.736483535254</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E31" t="n">
-        <v>1464.823389952861</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F31" t="n">
-        <v>1464.823389952861</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>3106.321558990131</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V31" t="n">
-        <v>2851.637070784244</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W31" t="n">
-        <v>2562.219900747284</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="X31" t="n">
-        <v>2334.230349849267</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="Y31" t="n">
-        <v>2113.437770705737</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2303.170539913434</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C32" t="n">
-        <v>1934.208022973022</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D32" t="n">
-        <v>1575.942324366272</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E32" t="n">
-        <v>1190.154071768027</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218342</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.867168464512</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="V32" t="n">
-        <v>3325.605821609171</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="W32" t="n">
-        <v>3325.605821609171</v>
+        <v>2726.12076557862</v>
       </c>
       <c r="X32" t="n">
-        <v>2952.140063348091</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y32" t="n">
-        <v>2689.770379977556</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>935.3220115735276</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>707.3324606755102</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>486.5398815319801</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2345.167438673965</v>
+        <v>2065.110222835251</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1696.147705894839</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1337.882007288089</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>952.0937546898447</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>541.1078499002372</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>126.0353997452336</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
@@ -6958,7 +6958,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X35" t="n">
-        <v>2382.341170533244</v>
+        <v>2841.849394875185</v>
       </c>
       <c r="Y35" t="n">
-        <v>2382.341170533244</v>
+        <v>2451.710062899373</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7037,7 +7037,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>409.1586012949289</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="C37" t="n">
-        <v>409.1586012949289</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="D37" t="n">
-        <v>359.619250712236</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="E37" t="n">
-        <v>359.619250712236</v>
+        <v>270.9995076393838</v>
       </c>
       <c r="F37" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621292</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251686</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X37" t="n">
-        <v>590.8070661251686</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y37" t="n">
-        <v>590.8070661251686</v>
+        <v>452.6479724696235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E38" t="n">
-        <v>66.51211643218342</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7274,7 +7274,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.0249360836212</v>
+        <v>753.0765981364616</v>
       </c>
       <c r="C40" t="n">
-        <v>142.0249360836212</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>142.0249360836212</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>142.0249360836212</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0249360836212</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251686</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271513</v>
+        <v>1155.517642110231</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.0249360836212</v>
+        <v>934.7250629667013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299123</v>
+        <v>2089.358425227295</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.135477358711</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363245</v>
+        <v>2475.958265291417</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7508,34 +7508,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>680.3679798527295</v>
+        <v>278.196479393871</v>
       </c>
       <c r="C43" t="n">
-        <v>511.4317969248226</v>
+        <v>278.196479393871</v>
       </c>
       <c r="D43" t="n">
-        <v>361.3151575124869</v>
+        <v>278.196479393871</v>
       </c>
       <c r="E43" t="n">
-        <v>213.4020639300938</v>
+        <v>278.196479393871</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218342</v>
+        <v>131.3065318959606</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V43" t="n">
-        <v>1134.908724368016</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W43" t="n">
-        <v>1134.908724368016</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X43" t="n">
-        <v>1082.809023826499</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="Y43" t="n">
-        <v>862.0164446829692</v>
+        <v>459.8449442241107</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1865.035106955552</v>
+        <v>1548.76669086687</v>
       </c>
       <c r="C44" t="n">
-        <v>1496.07259001514</v>
+        <v>1179.804173926458</v>
       </c>
       <c r="D44" t="n">
-        <v>1137.80689140839</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E44" t="n">
-        <v>752.0186388101456</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>341.032734020538</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W44" t="n">
-        <v>2641.774278995485</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2641.774278995485</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2251.634947019674</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="45">
@@ -7727,10 +7727,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738579</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>583.826112045951</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>583.826112045951</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>583.826112045951</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>436.9361645480407</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>269.2333279227596</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>123.0161411406174</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882606</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947628</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040977</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157942</v>
+        <v>25.82445471157919</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.66716643458748</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>65.05511571131635</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.7346136893545</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22637,16 +22637,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>7.886834839504019</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>118.8547354191214</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.87151167631771</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>75.83881971189737</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>139.9847791908012</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>93.64666787781847</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>80.85095794181407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>207.8215176834501</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>304.0065384866155</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>87.75143150898805</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>69.99732345939699</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>36.76001522042439</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>296.7574771839097</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>78.69109960846399</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23737,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>195.6222482896578</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>120.7449497621446</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>166.3497438692351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>124.1536493147533</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>214.5414662356956</v>
+        <v>101.8793369498885</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>337.9743263566738</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>67.83092071305771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>34.45276913823365</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>142.9638748464421</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>320.5133764642001</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>120.3509368739066</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.9530049144607</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>244.8184876220913</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12041821276424</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>80.37290984114173</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>68.85649517496424</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>126.4919521192241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>79.86678684997887</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>345.9318471227947</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>235.6797139074007</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>99.57151594134638</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>109.0043389868311</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1805474109846</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>94.04427615813348</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>21.59472895491476</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>211.6739935392774</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>147.5787499310939</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>101.8793369498888</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>174.1309518529351</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.33032051532444</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>180.7232440139083</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>40.41343594848847</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>505624.3884679083</v>
+        <v>1001354.717431979</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>612123.7119900216</v>
+        <v>1003465.426148498</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>756006.3740584899</v>
+        <v>1006924.584709289</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829372.0289004318</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224363.2393168237</v>
+        <v>451572.9734253554</v>
       </c>
       <c r="C2" t="n">
-        <v>272208.021102721</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437392</v>
+        <v>451572.973425356</v>
       </c>
       <c r="E2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
+        <v>375096.8088680128</v>
+      </c>
+      <c r="G2" t="n">
         <v>375096.8088680127</v>
       </c>
-      <c r="G2" t="n">
-        <v>375096.8088680128</v>
-      </c>
       <c r="H2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="J2" t="n">
         <v>375096.8088680127</v>
@@ -26346,13 +26346,13 @@
         <v>375096.8088680126</v>
       </c>
       <c r="M2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680125</v>
       </c>
       <c r="N2" t="n">
         <v>375096.8088680126</v>
       </c>
       <c r="O2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="P2" t="n">
         <v>375096.8088680127</v>
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739501</v>
+        <v>176672.6241739512</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819073</v>
+        <v>223886.3093819065</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171904</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911394</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640779</v>
+        <v>41076.98154640834</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194682</v>
+        <v>54988.29121946795</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341482</v>
+        <v>47552.2657934148</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16333.27348544815</v>
+        <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>18567.93185710824</v>
+        <v>204705.4033055018</v>
       </c>
       <c r="D4" t="n">
-        <v>22196.27613594852</v>
+        <v>141542.82055258</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26444,19 +26444,19 @@
         <v>11600.2349971284</v>
       </c>
       <c r="K4" t="n">
-        <v>11600.23499712842</v>
+        <v>11600.2349971284</v>
       </c>
       <c r="L4" t="n">
         <v>11600.2349971284</v>
       </c>
       <c r="M4" t="n">
+        <v>11600.2349971284</v>
+      </c>
+      <c r="N4" t="n">
         <v>11600.23499712842</v>
       </c>
-      <c r="N4" t="n">
-        <v>11600.2349971284</v>
-      </c>
       <c r="O4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="P4" t="n">
         <v>11600.2349971284</v>
@@ -26472,10 +26472,10 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923116</v>
+        <v>75746.87167923125</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,28 +26487,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535105.8179640839</v>
+        <v>-543684.8756332814</v>
       </c>
       <c r="C6" t="n">
-        <v>1220.593392431474</v>
+        <v>-5551.925733328317</v>
       </c>
       <c r="D6" t="n">
-        <v>-2451.564413961314</v>
+        <v>-6793.928948975285</v>
       </c>
       <c r="E6" t="n">
-        <v>107117.2534923004</v>
+        <v>103641.0641942396</v>
       </c>
       <c r="F6" t="n">
-        <v>289190.2333094911</v>
+        <v>285714.04401143</v>
       </c>
       <c r="G6" t="n">
-        <v>289190.2333094911</v>
+        <v>285714.04401143</v>
       </c>
       <c r="H6" t="n">
-        <v>289190.2333094911</v>
+        <v>285714.04401143</v>
       </c>
       <c r="I6" t="n">
-        <v>289190.2333094908</v>
+        <v>285714.04401143</v>
       </c>
       <c r="J6" t="n">
-        <v>220191.0788903771</v>
+        <v>216714.8895923158</v>
       </c>
       <c r="K6" t="n">
-        <v>248113.2517630832</v>
+        <v>244637.0624650216</v>
       </c>
       <c r="L6" t="n">
-        <v>234201.9420900227</v>
+        <v>230725.7527919619</v>
       </c>
       <c r="M6" t="n">
-        <v>241637.9675160762</v>
+        <v>238161.778218015</v>
       </c>
       <c r="N6" t="n">
-        <v>289190.233309491</v>
+        <v>285714.0440114298</v>
       </c>
       <c r="O6" t="n">
-        <v>289190.2333094911</v>
+        <v>285714.0440114298</v>
       </c>
       <c r="P6" t="n">
-        <v>289190.233309491</v>
+        <v>285714.04401143</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908062</v>
+        <v>751.4467899908071</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26758,7 +26758,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919669</v>
+        <v>423.3179548919679</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213279</v>
+        <v>137.3917762213287</v>
       </c>
       <c r="D3" t="n">
-        <v>182.618102126733</v>
+        <v>182.6181021267323</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904606</v>
+        <v>159.6040748904617</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="E4" t="n">
         <v>190.8166233022538</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904617</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080722</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904606</v>
+        <v>159.6040748904617</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080721</v>
+        <v>217.2668772080712</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022538</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>158.6310769182655</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>19.63478035467242</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>189.8190745620651</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>325.9440188482693</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398513</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253649</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.7470356681336</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>78.54471935059802</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>15.40891422342085</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>13.44701330777337</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>148.8788418911088</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.02089161805349</v>
+        <v>3.020891618053494</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339031</v>
+        <v>30.93770628339035</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050073</v>
+        <v>116.4629241050074</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677676</v>
+        <v>256.3943999677679</v>
       </c>
       <c r="K5" t="n">
-        <v>384.268742159972</v>
+        <v>384.2687421599724</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159765</v>
+        <v>476.7193540159771</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285353</v>
+        <v>530.4421353285359</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383298</v>
+        <v>539.0252436383305</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113104</v>
+        <v>508.986252611311</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906147</v>
+        <v>434.4079907906153</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190741</v>
+        <v>326.2223097190745</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025527</v>
+        <v>189.7610831025529</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639398</v>
+        <v>68.83856774639406</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802916</v>
+        <v>13.22395305802918</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442792</v>
+        <v>0.2416713294442794</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.616319510546264</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395996</v>
+        <v>15.61024369395998</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328141</v>
+        <v>55.64959718328148</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433204</v>
+        <v>152.7067481433206</v>
       </c>
       <c r="K6" t="n">
-        <v>261.00015534992</v>
+        <v>261.0001553499202</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876874</v>
+        <v>350.9469182876878</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449893</v>
+        <v>409.5385005449899</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345738</v>
+        <v>420.3777660345743</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587855</v>
+        <v>384.563528458786</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077332</v>
+        <v>308.6461353077336</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970984</v>
+        <v>206.3217676970986</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.3535920670742</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633078</v>
+        <v>30.02242599633081</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807082</v>
+        <v>6.51490188680709</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043595</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950634</v>
+        <v>1.355067981950636</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952474</v>
+        <v>12.04778623952475</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720635</v>
+        <v>40.7505898572064</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390982</v>
+        <v>95.80330632390994</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.434261902992</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165516</v>
+        <v>201.4616525165518</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706798</v>
+        <v>212.4130655706801</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379549</v>
+        <v>207.3623576379551</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.5326998488045</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170112</v>
+        <v>163.8893130170114</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886119</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843486</v>
+        <v>60.92878398843493</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544877</v>
+        <v>23.6151392854488</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879981</v>
+        <v>5.789835922879988</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548921</v>
+        <v>0.07391279901548931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563555</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.512347035315</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33277,7 +33277,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33918,7 +33918,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563578</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806949</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623188</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572287</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108135</v>
+        <v>75.34849544108164</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149914</v>
+        <v>164.1788911149919</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459893</v>
+        <v>240.9529390459899</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012626</v>
+        <v>300.0959021012632</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417389</v>
+        <v>309.6121800417396</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896237</v>
+        <v>278.8880411896242</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353452</v>
+        <v>203.1749950353458</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446246</v>
+        <v>103.916619844625</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665367</v>
+        <v>36.53628791124135</v>
       </c>
       <c r="K6" t="n">
-        <v>123.158716375561</v>
+        <v>387.6239533881399</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078132</v>
+        <v>212.3925385078136</v>
       </c>
       <c r="M6" t="n">
-        <v>267.404466622971</v>
+        <v>267.4044666229715</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512404</v>
+        <v>289.036053951241</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143411</v>
+        <v>241.9672840143415</v>
       </c>
       <c r="P6" t="n">
-        <v>239.7268436047193</v>
+        <v>174.6717278934034</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.417281346926</v>
+        <v>66.33999361107709</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144309989</v>
+        <v>0.1957579144311126</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237048</v>
+        <v>2.444126207237161</v>
       </c>
       <c r="K7" t="n">
-        <v>135.164770077109</v>
+        <v>135.1647700771092</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768677</v>
+        <v>229.051677776868</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325204</v>
+        <v>251.9969425325206</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171835</v>
+        <v>251.4945300171837</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628439</v>
+        <v>216.1178277628441</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819047</v>
+        <v>161.1678722819049</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691735</v>
+        <v>27.30642203691748</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>443.0068759113678</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222342</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.670908060956</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222572</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923316</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>918344.4892066157</v>
+        <v>952080.5926092728</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>6542240.186367738</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10093668.22892278</v>
+        <v>8989659.799574453</v>
       </c>
     </row>
     <row r="11">
@@ -658,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>79.51149230610436</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>152.7676931992223</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>263.7138800015062</v>
-      </c>
-      <c r="G2" t="n">
-        <v>12.83417464571001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>155.5625557110025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>115.3066195468971</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.2897156032232</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>79.84453991653733</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>17.2873502896601</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.39527131750074</v>
+        <v>221.4933117217595</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>263.7138800015062</v>
       </c>
-      <c r="V4" t="n">
-        <v>252.137643323828</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>55.98635122399254</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.28184589708156</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539848</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398512</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>119.289056637737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>115.1051074574165</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>72.30881349992099</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,10 +1068,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2269971530873</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679148</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>67.91799475207861</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>398.1006894651806</v>
+        <v>124.4908617909721</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>144.2554484570979</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>103.2588014327192</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.9123239800305</v>
+        <v>44.37321050886516</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1435,10 +1435,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>198.4011868502809</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.816914552501556</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>282.7823572636607</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>66.0639153058568</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>168.4243449750664</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>132.1300101804771</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>362.4654100627716</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>56.00855464855959</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>98.80399951402457</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>249.6493554732359</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>225.0873194026597</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>15.42290135054924</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,16 +2295,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>184.3325012557244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>72.94739929677965</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396202</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>78.87747437598939</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>111.9811935083355</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>44.75951530680749</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>137.9038626268941</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,13 +2769,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>181.448709609577</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>137.1118824501705</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>141.4194510339622</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -3006,19 +3006,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>241.1325567395859</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>138.2117435109531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>121.5091210367494</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.33126661321162</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.96519333195843</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>129.8723895268707</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>58.92805047991973</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>152.5938874041456</v>
       </c>
     </row>
     <row r="36">
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>36.41670903610014</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486463</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>158.5596236696482</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>73.20254494049435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>20.18624009875678</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>153.5988982317301</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>63.82941531820421</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>64.14647130913943</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>313.3527211053585</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>202.1727948966</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>216.2486892180366</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>840.4214638411528</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="C2" t="n">
-        <v>840.4214638411528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>840.4214638411528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>574.0438072739748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>307.6661507067968</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>294.7023379333524</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.2640879052545</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030608</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991321</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="W2" t="n">
-        <v>840.4214638411528</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="X2" t="n">
-        <v>840.4214638411528</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y2" t="n">
-        <v>840.4214638411528</v>
+        <v>367.7894056603332</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>868.3042991927468</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="C3" t="n">
-        <v>693.8512699116199</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="D3" t="n">
-        <v>544.9168602503686</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="E3" t="n">
-        <v>385.6794052449131</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>239.1448472717981</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>101.7481608208653</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4409,52 +4409,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004802</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>95.78113116957466</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1037.393550016469</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1037.393550016469</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1037.393550016469</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>809.2577040532826</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>574.10559582154</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>574.10559582154</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>366.2540956160072</v>
       </c>
       <c r="Y3" t="n">
-        <v>1036.519636212815</v>
+        <v>158.4937968510533</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.0607779425552</v>
+        <v>343.9546663945495</v>
       </c>
       <c r="C4" t="n">
-        <v>331.1245950146483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="D4" t="n">
-        <v>331.1245950146483</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>1021.12292271562</v>
+        <v>831.1249021052577</v>
       </c>
       <c r="U4" t="n">
-        <v>754.7452661484421</v>
+        <v>831.1249021052577</v>
       </c>
       <c r="V4" t="n">
-        <v>500.0607779425552</v>
+        <v>831.1249021052577</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0607779425552</v>
+        <v>564.7472455380796</v>
       </c>
       <c r="X4" t="n">
-        <v>500.0607779425552</v>
+        <v>564.7472455380796</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.0607779425552</v>
+        <v>343.9546663945495</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>967.0374060366776</v>
+        <v>1177.539960925471</v>
       </c>
       <c r="C5" t="n">
-        <v>967.0374060366776</v>
+        <v>808.5774439850591</v>
       </c>
       <c r="D5" t="n">
-        <v>608.7717074299271</v>
+        <v>450.3117453783086</v>
       </c>
       <c r="E5" t="n">
-        <v>552.2198375067023</v>
+        <v>450.3117453783086</v>
       </c>
       <c r="F5" t="n">
-        <v>141.2339327170948</v>
+        <v>450.3117453783086</v>
       </c>
       <c r="G5" t="n">
-        <v>128.8280277705478</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="H5" t="n">
-        <v>128.8280277705478</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780283</v>
+        <v>108.4604468780287</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818703</v>
+        <v>270.997549081871</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373999</v>
+        <v>509.5409587374015</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176505</v>
+        <v>806.6359018176522</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058972</v>
+        <v>1113.151960058975</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.2511208367</v>
+        <v>1389.251120836703</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921693</v>
+        <v>1590.394365921696</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567871</v>
+        <v>1551.674342961965</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567871</v>
+        <v>1551.674342961965</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567871</v>
+        <v>1298.033957529246</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567871</v>
+        <v>1298.033957529246</v>
       </c>
       <c r="W5" t="n">
-        <v>1340.503164297757</v>
+        <v>1298.033957529246</v>
       </c>
       <c r="X5" t="n">
-        <v>967.0374060366776</v>
+        <v>1177.539960925471</v>
       </c>
       <c r="Y5" t="n">
-        <v>967.0374060366776</v>
+        <v>1177.539960925471</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>503.7874333068507</v>
+        <v>208.3184656724845</v>
       </c>
       <c r="C6" t="n">
-        <v>329.3344040257238</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="D6" t="n">
-        <v>180.3999943644725</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644725</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J6" t="n">
-        <v>70.03636142348637</v>
+        <v>59.47586665324498</v>
       </c>
       <c r="K6" t="n">
-        <v>453.7840752777448</v>
+        <v>207.8181108844537</v>
       </c>
       <c r="L6" t="n">
-        <v>664.0526884004803</v>
+        <v>418.0867240071896</v>
       </c>
       <c r="M6" t="n">
-        <v>928.7831103572221</v>
+        <v>682.8171459639318</v>
       </c>
       <c r="N6" t="n">
-        <v>1214.928803768951</v>
+        <v>968.9628393756608</v>
       </c>
       <c r="O6" t="n">
-        <v>1454.476414943149</v>
+        <v>1208.510450549859</v>
       </c>
       <c r="P6" t="n">
-        <v>1627.401425557618</v>
+        <v>1627.595225892909</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232585</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567871</v>
+        <v>1693.271819567875</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567871</v>
+        <v>1550.18015784312</v>
       </c>
       <c r="T6" t="n">
-        <v>1577.00403425735</v>
+        <v>1354.574272178459</v>
       </c>
       <c r="U6" t="n">
-        <v>1577.00403425735</v>
+        <v>1281.535066622984</v>
       </c>
       <c r="V6" t="n">
-        <v>1341.851926025607</v>
+        <v>1046.382958391241</v>
       </c>
       <c r="W6" t="n">
-        <v>1087.614569297406</v>
+        <v>792.1456016630393</v>
       </c>
       <c r="X6" t="n">
-        <v>879.7630690918727</v>
+        <v>584.2941014575065</v>
       </c>
       <c r="Y6" t="n">
-        <v>672.0027703269188</v>
+        <v>376.5338026925526</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>631.5396594628727</v>
+        <v>817.6201125656517</v>
       </c>
       <c r="C7" t="n">
-        <v>631.5396594628727</v>
+        <v>648.6839296377448</v>
       </c>
       <c r="D7" t="n">
-        <v>481.4230200505369</v>
+        <v>648.6839296377448</v>
       </c>
       <c r="E7" t="n">
-        <v>333.5099264681438</v>
+        <v>500.7708360553517</v>
       </c>
       <c r="F7" t="n">
-        <v>186.6199789702335</v>
+        <v>353.8808885574413</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135743</v>
+        <v>185.5617861569281</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135743</v>
+        <v>33.86543639135751</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652222</v>
+        <v>36.28512133652239</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128603</v>
+        <v>170.0982437128606</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119595</v>
+        <v>396.8594047119601</v>
       </c>
       <c r="M7" t="n">
-        <v>646.336377819155</v>
+        <v>646.3363778191558</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361669</v>
+        <v>895.3159625361679</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021383</v>
+        <v>1109.272612021384</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580468</v>
+        <v>1268.82880558047</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397017</v>
+        <v>1295.862163397018</v>
       </c>
       <c r="V7" t="n">
-        <v>1041.17767519113</v>
+        <v>1227.258128293909</v>
       </c>
       <c r="W7" t="n">
-        <v>1041.17767519113</v>
+        <v>1227.258128293909</v>
       </c>
       <c r="X7" t="n">
-        <v>813.1881242931124</v>
+        <v>999.2685773958914</v>
       </c>
       <c r="Y7" t="n">
-        <v>813.1881242931124</v>
+        <v>999.2685773958914</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1234.787393074839</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>1234.787393074839</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D8" t="n">
-        <v>1234.787393074839</v>
+        <v>933.2161775761949</v>
       </c>
       <c r="E8" t="n">
-        <v>1234.787393074839</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="F8" t="n">
-        <v>823.8014882852319</v>
+        <v>547.4279249779506</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4801,7 +4801,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4810,46 +4810,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>1977.695380320765</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1624.926725050651</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.926725050651</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.787393074839</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4880,40 +4880,40 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
         <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.852508549538</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105704</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281866</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.04689843412</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
         <v>2004.520742047138</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1294.10479803527</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1004.986460539108</v>
       </c>
       <c r="V10" t="n">
-        <v>1532.144300445488</v>
+        <v>750.3019723332208</v>
       </c>
       <c r="W10" t="n">
-        <v>1242.727130408528</v>
+        <v>460.8848022962601</v>
       </c>
       <c r="X10" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2005.586939522201</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="C11" t="n">
-        <v>1636.624422581789</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653545</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653545</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y11" t="n">
-        <v>2182.266054653545</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.0249360836216</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C13" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,10 +5220,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
         <v>1645.778206672847</v>
@@ -5235,16 +5235,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>845.4915543310553</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>617.502003433038</v>
       </c>
       <c r="Y13" t="n">
-        <v>142.0249360836216</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1892.963660013482</v>
+        <v>1232.248790760447</v>
       </c>
       <c r="C14" t="n">
-        <v>1524.001143073071</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="D14" t="n">
-        <v>1165.73544446632</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E14" t="n">
-        <v>779.9471918680758</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F14" t="n">
-        <v>368.9612870784683</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G14" t="n">
-        <v>368.9612870784683</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>71.3776866872355</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V14" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W14" t="n">
-        <v>2656.568750250374</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X14" t="n">
-        <v>2283.102991989294</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1892.963660013482</v>
+        <v>1618.848630824569</v>
       </c>
     </row>
     <row r="15">
@@ -5348,10 +5348,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5363,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>469.8823635670449</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C16" t="n">
-        <v>300.946180639138</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D16" t="n">
-        <v>300.946180639138</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E16" t="n">
-        <v>300.946180639138</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F16" t="n">
-        <v>300.946180639138</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>133.243344013857</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.425065783662</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V16" t="n">
-        <v>1161.740577577775</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W16" t="n">
-        <v>872.3234075408147</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X16" t="n">
-        <v>872.3234075408147</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y16" t="n">
-        <v>651.5308283972846</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1619.798686923957</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C17" t="n">
-        <v>1250.836169983545</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D17" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
         <v>66.51211643218342</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V17" t="n">
-        <v>2732.632940519273</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W17" t="n">
-        <v>2379.864285249158</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X17" t="n">
-        <v>2006.398526988078</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="Y17" t="n">
-        <v>2006.398526988078</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5600,7 +5600,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>994.2880032601528</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="C19" t="n">
-        <v>825.3518203322459</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="D19" t="n">
-        <v>675.2351809199101</v>
+        <v>270.9995076393842</v>
       </c>
       <c r="E19" t="n">
-        <v>527.322087337517</v>
+        <v>123.0864140569911</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1827.492528377357</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1538.389661503</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1283.705173297113</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>994.2880032601528</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>994.2880032601528</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>994.2880032601528</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1934.208022973022</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912074</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810539</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
@@ -5791,13 +5791,13 @@
         <v>2535.034709923657</v>
       </c>
       <c r="W20" t="n">
-        <v>2307.673781234102</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X20" t="n">
-        <v>1934.208022973022</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="Y20" t="n">
-        <v>1934.208022973022</v>
+        <v>2182.266054653543</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064581</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.1049005553748</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C22" t="n">
-        <v>381.1049005553748</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1049005553748</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="F22" t="n">
         <v>234.2149530574644</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1327.647602771992</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1072.963114566105</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>783.5459445291447</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X22" t="n">
-        <v>783.5459445291447</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y22" t="n">
-        <v>562.7533653856145</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1295.236214140705</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C23" t="n">
-        <v>1295.236214140705</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D23" t="n">
-        <v>936.9705155339541</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E23" t="n">
-        <v>551.1822629357098</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F23" t="n">
-        <v>140.1963581461022</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218339</v>
@@ -5992,10 +5992,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
         <v>1573.776739001388</v>
@@ -6004,7 +6004,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="X23" t="n">
-        <v>2071.975386180638</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y23" t="n">
-        <v>1681.836054204826</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G24" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I24" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>644.3338566427969</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>644.3338566427969</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>494.2172172304612</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
         <v>66.51211643218339</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>872.3234075408143</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>644.3338566427969</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>644.3338566427969</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1681.836054204827</v>
+        <v>2144.883770458458</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1775.921253518046</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1417.655554911295</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>1031.867302313051</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>620.8813975234436</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>205.8089473684401</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X26" t="n">
-        <v>2071.975386180639</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y26" t="n">
-        <v>1681.836054204827</v>
+        <v>2531.48361052258</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
         <v>618.1564155387305</v>
@@ -6293,46 +6293,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T27" t="n">
         <v>2242.828302297192</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6408,19 +6408,19 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621292</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
         <v>696.9427113039706</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1758.295537883725</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1389.333020943313</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1031.067322336563</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
         <v>892.5704713767946</v>
@@ -6463,25 +6463,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6508,7 +6508,7 @@
         <v>2535.034709923658</v>
       </c>
       <c r="Y29" t="n">
-        <v>2144.895377947847</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C31" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D31" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E31" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F31" t="n">
         <v>234.2149530574645</v>
@@ -6654,19 +6654,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U31" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V31" t="n">
-        <v>1169.327103036486</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W31" t="n">
-        <v>1169.327103036486</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X31" t="n">
-        <v>1169.327103036486</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y31" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.915835277607</v>
+        <v>2098.94140762926</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.953318337195</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.953318337195</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E32" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F32" t="n">
         <v>821.1650657389509</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3284.867168464512</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T32" t="n">
-        <v>3078.889420848735</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U32" t="n">
-        <v>3078.889420848735</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V32" t="n">
-        <v>3078.889420848735</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W32" t="n">
-        <v>2726.12076557862</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X32" t="n">
-        <v>2352.65500731754</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y32" t="n">
-        <v>1962.515675341729</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="33">
@@ -6785,19 +6785,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>385.5649387724261</v>
+        <v>684.4520072430311</v>
       </c>
       <c r="C34" t="n">
-        <v>216.6287558445192</v>
+        <v>515.5158243151242</v>
       </c>
       <c r="D34" t="n">
-        <v>66.51211643218342</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="E34" t="n">
-        <v>66.51211643218342</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="F34" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218342</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610488</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V34" t="n">
-        <v>1224.739181610488</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W34" t="n">
-        <v>935.3220115735276</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X34" t="n">
-        <v>707.3324606755102</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y34" t="n">
-        <v>486.5398815319801</v>
+        <v>866.1004720732708</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2065.110222835251</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C35" t="n">
-        <v>1696.147705894839</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D35" t="n">
-        <v>1337.882007288089</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>952.0937546898447</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>541.1078499002372</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>126.0353997452336</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.51211643218339</v>
@@ -6952,7 +6952,7 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296685</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2841.849394875185</v>
+        <v>2588.318918149021</v>
       </c>
       <c r="Y35" t="n">
-        <v>2451.710062899373</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>270.9995076393838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C37" t="n">
-        <v>270.9995076393838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D37" t="n">
-        <v>270.9995076393838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E37" t="n">
-        <v>270.9995076393838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
         <v>66.51211643218339</v>
@@ -7128,19 +7128,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>970.0546934046014</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>680.6375233676408</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696235</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696235</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2345.167438673965</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="C38" t="n">
-        <v>1976.204921733553</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="D38" t="n">
-        <v>1617.939223126803</v>
+        <v>1480.516858765518</v>
       </c>
       <c r="E38" t="n">
-        <v>1232.150970528558</v>
+        <v>1094.728606167273</v>
       </c>
       <c r="F38" t="n">
-        <v>821.1650657389509</v>
+        <v>683.742701377666</v>
       </c>
       <c r="G38" t="n">
-        <v>406.0926155839475</v>
+        <v>268.6702512226624</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W38" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X38" t="n">
-        <v>3121.906610713899</v>
+        <v>2257.256030805451</v>
       </c>
       <c r="Y38" t="n">
-        <v>2731.767278738087</v>
+        <v>1867.11669882964</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>753.0765981364616</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7359,25 +7359,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1906.904406574597</v>
       </c>
       <c r="T40" t="n">
-        <v>1927.294548088492</v>
+        <v>1685.137791144123</v>
       </c>
       <c r="U40" t="n">
-        <v>1638.191681214136</v>
+        <v>1396.034924269766</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.507193008249</v>
+        <v>1141.350436063879</v>
       </c>
       <c r="W40" t="n">
-        <v>1383.507193008249</v>
+        <v>851.9332660269189</v>
       </c>
       <c r="X40" t="n">
-        <v>1155.517642110231</v>
+        <v>623.9437151289015</v>
       </c>
       <c r="Y40" t="n">
-        <v>934.7250629667013</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2089.358425227295</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U41" t="n">
         <v>2866.097597267229</v>
       </c>
       <c r="V41" t="n">
-        <v>2866.097597267229</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W41" t="n">
-        <v>2866.097597267229</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X41" t="n">
-        <v>2866.097597267229</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y41" t="n">
-        <v>2475.958265291417</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7511,31 +7511,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>278.196479393871</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>278.196479393871</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>278.196479393871</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>278.196479393871</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>131.3065318959606</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1224.739181610488</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V43" t="n">
-        <v>970.0546934046014</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W43" t="n">
-        <v>680.6375233676408</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X43" t="n">
-        <v>680.6375233676408</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.8449442241107</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1548.76669086687</v>
+        <v>1734.04733549168</v>
       </c>
       <c r="C44" t="n">
-        <v>1179.804173926458</v>
+        <v>1365.084818551268</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>1365.084818551268</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>979.2965659530237</v>
       </c>
       <c r="F44" t="n">
-        <v>66.51211643218342</v>
+        <v>568.3106611634162</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U44" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V44" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W44" t="n">
-        <v>2325.505862906803</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="X44" t="n">
-        <v>2325.505862906803</v>
+        <v>2510.786507531613</v>
       </c>
       <c r="Y44" t="n">
-        <v>1935.366530930991</v>
+        <v>2120.647175555801</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="C46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574644</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069063</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.3216690912726</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157919</v>
+        <v>25.82445471157897</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>10.66716643458748</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>26.68193436303312</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>248.6462269985651</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688959</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878354</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11135,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>285.7613994649032</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.8651746656175874</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.7210341578064</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323767</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539835</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>250.442044040732</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253648</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813354</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>153.5262317711495</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700518</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887345</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515234</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>184.2196485717494</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23032,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>287.0568409819818</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>76.49324754011408</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>207.8215176834501</v>
+        <v>338.3606311546154</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23433,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>69.99732345939699</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>20.18346650181385</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>36.76001522042439</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>103.4555813923929</v>
       </c>
     </row>
     <row r="15">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>78.69109960846399</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23703,22 +23703,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>195.6222482896578</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>7.265690615697395</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>89.41249337437165</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>120.7449497621446</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>133.0844861902447</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>124.1536493147533</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>129.998146672382</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>101.8793369498885</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>337.9743263566738</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>290.8536263024797</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.45276913823365</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>320.5133764642001</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>156.7039017604263</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -24496,10 +24496,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>244.8184876220913</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>244.8184876220914</v>
       </c>
     </row>
     <row r="30">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>45.39044159700509</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.37290984114173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>243.7637707342582</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.85649517496424</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.86678684997887</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>15.54865849606054</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,16 +25125,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>235.6797139074007</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>233.644051251908</v>
       </c>
     </row>
     <row r="36">
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>109.0043389868311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>16.14213605696659</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>136.0481407176722</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>94.04427615813348</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>169.5827852326851</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>211.6739935392774</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>285.4115533992088</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>101.8793369498888</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>41.33032051532444</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>208.7489307568535</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>2.33596413405823</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001354.717431979</v>
+        <v>505624.3884679083</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1003465.426148498</v>
+        <v>612123.7119900229</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1006924.584709289</v>
+        <v>756006.3740584899</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>829372.0289004317</v>
+        <v>829372.0289004315</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>829372.0289004315</v>
+        <v>829372.0289004316</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004317</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>829372.0289004316</v>
+        <v>829372.0289004314</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253554</v>
+        <v>224363.2393168237</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>272208.0211027215</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>336568.7935437395</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="F2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="G2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
+        <v>375096.8088680126</v>
+      </c>
+      <c r="I2" t="n">
         <v>375096.8088680127</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>375096.8088680126</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>375096.8088680126</v>
+      </c>
+      <c r="L2" t="n">
+        <v>375096.8088680128</v>
+      </c>
+      <c r="M2" t="n">
+        <v>375096.8088680126</v>
+      </c>
+      <c r="N2" t="n">
         <v>375096.8088680127</v>
-      </c>
-      <c r="K2" t="n">
-        <v>375096.8088680127</v>
-      </c>
-      <c r="L2" t="n">
-        <v>375096.8088680126</v>
-      </c>
-      <c r="M2" t="n">
-        <v>375096.8088680125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>375096.8088680126</v>
       </c>
       <c r="O2" t="n">
         <v>375096.8088680126</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739512</v>
+        <v>176672.6241739523</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819065</v>
+        <v>223886.3093819054</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171904</v>
+        <v>182072.9798171903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640834</v>
+        <v>41076.98154640864</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946795</v>
+        <v>54988.29121946768</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.2657934148</v>
+        <v>47552.26579341474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252122.0652631775</v>
+        <v>16333.27348544816</v>
       </c>
       <c r="C4" t="n">
-        <v>204705.4033055018</v>
+        <v>18567.93185710825</v>
       </c>
       <c r="D4" t="n">
-        <v>141542.82055258</v>
+        <v>22196.27613594851</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
         <v>11600.2349971284</v>
@@ -26441,7 +26441,7 @@
         <v>11600.2349971284</v>
       </c>
       <c r="J4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="K4" t="n">
         <v>11600.2349971284</v>
@@ -26453,13 +26453,13 @@
         <v>11600.2349971284</v>
       </c>
       <c r="N4" t="n">
+        <v>11600.2349971284</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11600.2349971284</v>
+      </c>
+      <c r="P4" t="n">
         <v>11600.23499712842</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11600.23499712842</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11600.2349971284</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923125</v>
+        <v>75746.87167923132</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
@@ -26505,13 +26505,13 @@
         <v>74306.34056139327</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543684.8756332814</v>
+        <v>-536138.5894827589</v>
       </c>
       <c r="C6" t="n">
-        <v>-5551.925733328317</v>
+        <v>405.2981545994269</v>
       </c>
       <c r="D6" t="n">
-        <v>-6793.928948975285</v>
+        <v>-2974.310686148282</v>
       </c>
       <c r="E6" t="n">
-        <v>103641.0641942396</v>
+        <v>106769.6345624946</v>
       </c>
       <c r="F6" t="n">
-        <v>285714.04401143</v>
+        <v>288842.6143796848</v>
       </c>
       <c r="G6" t="n">
-        <v>285714.04401143</v>
+        <v>288842.614379685</v>
       </c>
       <c r="H6" t="n">
-        <v>285714.04401143</v>
+        <v>288842.6143796848</v>
       </c>
       <c r="I6" t="n">
-        <v>285714.04401143</v>
+        <v>288842.6143796851</v>
       </c>
       <c r="J6" t="n">
-        <v>216714.8895923158</v>
+        <v>219843.4599605707</v>
       </c>
       <c r="K6" t="n">
-        <v>244637.0624650216</v>
+        <v>247765.6328332762</v>
       </c>
       <c r="L6" t="n">
-        <v>230725.7527919619</v>
+        <v>233854.3231602173</v>
       </c>
       <c r="M6" t="n">
-        <v>238161.778218015</v>
+        <v>241290.3485862701</v>
       </c>
       <c r="N6" t="n">
-        <v>285714.0440114298</v>
+        <v>288842.6143796848</v>
       </c>
       <c r="O6" t="n">
-        <v>285714.0440114298</v>
+        <v>288842.6143796848</v>
       </c>
       <c r="P6" t="n">
-        <v>285714.04401143</v>
+        <v>288842.614379685</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908071</v>
+        <v>751.4467899908079</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,16 +26792,16 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919679</v>
+        <v>423.3179548919688</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022928</v>
@@ -26813,7 +26813,7 @@
         <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213287</v>
+        <v>137.3917762213296</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267323</v>
+        <v>182.6181021267314</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757589</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904626</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080712</v>
+        <v>217.2668772080701</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904628</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080712</v>
+        <v>217.2668772080701</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022536</v>
+        <v>190.8166233022533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904617</v>
+        <v>159.6040748904626</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080712</v>
+        <v>217.2668772080701</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>158.6310769182655</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>19.63478035467242</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>189.8190745620651</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.5447505011713</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>325.9440188482693</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398513</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253649</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.7470356681336</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.660745107507</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>78.54471935059802</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15.40891422342085</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679148</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887346</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515234</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.44701330777337</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>148.8788418911088</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053494</v>
+        <v>3.020891618053497</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339035</v>
+        <v>30.93770628339038</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050074</v>
+        <v>116.4629241050076</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677679</v>
+        <v>256.3943999677682</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599724</v>
+        <v>384.2687421599728</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159771</v>
+        <v>476.7193540159776</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285359</v>
+        <v>530.4421353285364</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383305</v>
+        <v>539.0252436383311</v>
       </c>
       <c r="O5" t="n">
-        <v>508.986252611311</v>
+        <v>508.9862526113115</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906153</v>
+        <v>434.4079907906158</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190745</v>
+        <v>326.2223097190748</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025529</v>
+        <v>189.7610831025532</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639406</v>
+        <v>68.83856774639413</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802918</v>
+        <v>13.22395305802919</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442794</v>
+        <v>0.2416713294442797</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546264</v>
+        <v>1.616319510546266</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395998</v>
+        <v>15.61024369395999</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328148</v>
+        <v>55.64959718328154</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433206</v>
+        <v>152.7067481433207</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499202</v>
+        <v>261.0001553499205</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876878</v>
+        <v>350.9469182876882</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449899</v>
+        <v>409.5385005449903</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345743</v>
+        <v>420.3777660345747</v>
       </c>
       <c r="O6" t="n">
-        <v>384.563528458786</v>
+        <v>384.5635284587864</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077336</v>
+        <v>308.646135307734</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970986</v>
+        <v>206.3217676970988</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670742</v>
+        <v>100.3535920670744</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633081</v>
+        <v>30.02242599633085</v>
       </c>
       <c r="T6" t="n">
-        <v>6.51490188680709</v>
+        <v>6.514901886807096</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043595</v>
+        <v>0.1063368099043597</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950636</v>
+        <v>1.355067981950637</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952475</v>
+        <v>12.04778623952476</v>
       </c>
       <c r="I7" t="n">
-        <v>40.7505898572064</v>
+        <v>40.75058985720644</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390994</v>
+        <v>95.80330632391004</v>
       </c>
       <c r="K7" t="n">
-        <v>157.434261902992</v>
+        <v>157.4342619029922</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165518</v>
+        <v>201.461652516552</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706801</v>
+        <v>212.4130655706803</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379551</v>
+        <v>207.3623576379554</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488045</v>
+        <v>191.5326998488047</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170114</v>
+        <v>163.8893130170115</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886119</v>
+        <v>113.468465288612</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843493</v>
+        <v>60.92878398843499</v>
       </c>
       <c r="S7" t="n">
-        <v>23.6151392854488</v>
+        <v>23.61513928544882</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879988</v>
+        <v>5.789835922879994</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548931</v>
+        <v>0.07391279901548937</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953974</v>
       </c>
       <c r="K20" t="n">
         <v>557.281137600381</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563555</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,7 +32806,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987486</v>
@@ -33277,13 +33277,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33903,7 +33903,7 @@
         <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490575</v>
       </c>
       <c r="N38" t="n">
         <v>781.7148990095022</v>
@@ -33918,7 +33918,7 @@
         <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563578</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806949</v>
@@ -33991,7 +33991,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.938547087769</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108164</v>
+        <v>75.34849544108192</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149919</v>
+        <v>164.1788911149923</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459899</v>
+        <v>240.9529390459904</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012632</v>
+        <v>300.0959021012637</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417396</v>
+        <v>309.6121800417401</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896242</v>
+        <v>278.8880411896248</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353458</v>
+        <v>203.1749950353462</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.916619844625</v>
+        <v>103.9166198446253</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>36.53628791124135</v>
+        <v>25.86912147665402</v>
       </c>
       <c r="K6" t="n">
-        <v>387.6239533881399</v>
+        <v>149.8406507385947</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078136</v>
+        <v>212.392538507814</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229715</v>
+        <v>267.4044666229719</v>
       </c>
       <c r="N6" t="n">
-        <v>289.036053951241</v>
+        <v>289.0360539512415</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143415</v>
+        <v>241.9672840143419</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934034</v>
+        <v>423.3179548919688</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.33999361107709</v>
+        <v>66.33999361107732</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144311126</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237161</v>
+        <v>2.444126207237261</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771092</v>
+        <v>135.1647700771093</v>
       </c>
       <c r="L7" t="n">
-        <v>229.051677776868</v>
+        <v>229.0516777768682</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325206</v>
+        <v>251.9969425325209</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171837</v>
+        <v>251.494530017184</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628441</v>
+        <v>216.1178277628443</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819049</v>
+        <v>161.167872281905</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691748</v>
+        <v>27.30642203691761</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
@@ -35269,7 +35269,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113678</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687111</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127271</v>
@@ -36925,13 +36925,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37566,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,7 +37639,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
